--- a/data_output/prism_passive/all_passive_out_licht_fas_strain_GM_zero.xlsx
+++ b/data_output/prism_passive/all_passive_out_licht_fas_strain_GM_zero.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11364" windowHeight="6744"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11370" windowHeight="6750"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -356,7 +351,7 @@
       <selection activeCell="B1" sqref="B1:AY3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -518,154 +513,154 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>1.0471543105352326</v>
+        <v>1.0471543104377714</v>
       </c>
       <c r="C2">
-        <v>10.278253881172441</v>
+        <v>10.278253881239507</v>
       </c>
       <c r="D2">
-        <v>11.274348604143599</v>
+        <v>11.274348604036694</v>
       </c>
       <c r="E2">
-        <v>25.650007595657186</v>
+        <v>25.650007595309233</v>
       </c>
       <c r="F2">
-        <v>8.3153607740937847</v>
+        <v>8.3153607724664926</v>
       </c>
       <c r="G2">
-        <v>1.1137133478416441</v>
+        <v>1.1137133479998667</v>
       </c>
       <c r="H2">
-        <v>6.8997033481926398</v>
+        <v>6.8997033483101395</v>
       </c>
       <c r="I2">
-        <v>16.875306450931181</v>
+        <v>16.875306450438451</v>
       </c>
       <c r="J2">
-        <v>14.757479835246562</v>
+        <v>14.757479837682908</v>
       </c>
       <c r="K2">
-        <v>3.6498268594644974</v>
+        <v>3.6498268595172285</v>
       </c>
       <c r="L2">
-        <v>4.8437607856580289</v>
+        <v>4.8437607859804093</v>
       </c>
       <c r="M2">
-        <v>-9.368042042455583</v>
+        <v>-9.3680420427849818</v>
       </c>
       <c r="N2">
-        <v>16.846068017366321</v>
+        <v>16.846068016899849</v>
       </c>
       <c r="O2">
-        <v>9.1514448931773149</v>
+        <v>9.1514448931660137</v>
       </c>
       <c r="P2">
-        <v>20.613428148088271</v>
+        <v>20.613428147926356</v>
       </c>
       <c r="Q2">
-        <v>-2.7165164364931158</v>
+        <v>-2.7165164364185239</v>
       </c>
       <c r="R2">
-        <v>-12.049607505575253</v>
+        <v>-12.049607504453629</v>
       </c>
       <c r="S2">
-        <v>31.107734284067355</v>
+        <v>31.107734283684547</v>
       </c>
       <c r="T2">
-        <v>29.275076932602328</v>
+        <v>29.275076931949762</v>
       </c>
       <c r="U2">
-        <v>-5.2371573512103575</v>
+        <v>-5.2371573509240497</v>
       </c>
       <c r="V2">
-        <v>3.257896809145767</v>
+        <v>3.2578968085905005</v>
       </c>
       <c r="W2">
-        <v>-19.09447275906393</v>
+        <v>-19.094472757414682</v>
       </c>
       <c r="X2">
-        <v>-2.2831633222419789</v>
+        <v>-2.2831633216552167</v>
       </c>
       <c r="Y2">
-        <v>23.42456872413814</v>
+        <v>23.424568724039752</v>
       </c>
       <c r="Z2">
-        <v>11.11062562346642</v>
+        <v>11.11062562325677</v>
       </c>
       <c r="AA2">
-        <v>13.561019889073393</v>
+        <v>13.561019896520621</v>
       </c>
       <c r="AB2">
-        <v>6.6143047768685097</v>
+        <v>6.6143047769190542</v>
       </c>
       <c r="AC2">
-        <v>-5.5493057144489519</v>
+        <v>-5.5493057144669615</v>
       </c>
       <c r="AD2">
-        <v>21.034850123791557</v>
+        <v>21.034850123685878</v>
       </c>
       <c r="AE2">
-        <v>5.4147160161083399</v>
+        <v>5.4147160156156735</v>
       </c>
       <c r="AF2">
-        <v>12.329853028727044</v>
+        <v>12.329853027859333</v>
       </c>
       <c r="AG2">
-        <v>13.415344225931017</v>
+        <v>13.415344228554568</v>
       </c>
       <c r="AH2">
-        <v>15.600648064301421</v>
+        <v>15.600648065207206</v>
       </c>
       <c r="AI2">
-        <v>13.167686170979092</v>
+        <v>13.167686170765682</v>
       </c>
       <c r="AJ2">
-        <v>11.49739513167787</v>
+        <v>11.497395132143353</v>
       </c>
       <c r="AK2">
-        <v>15.468611729814571</v>
+        <v>15.468611729599962</v>
       </c>
       <c r="AL2">
-        <v>-7.6021513567710963</v>
+        <v>-7.6021513564973695</v>
       </c>
       <c r="AM2">
-        <v>11.26245876832964</v>
+        <v>11.262458768517522</v>
       </c>
       <c r="AN2">
-        <v>17.087306887543019</v>
+        <v>17.087306887355112</v>
       </c>
       <c r="AO2">
-        <v>28.298840362658993</v>
+        <v>28.29884036347346</v>
       </c>
       <c r="AP2">
-        <v>18.620194531678582</v>
+        <v>18.620194531063053</v>
       </c>
       <c r="AQ2">
-        <v>-11.499985915935405</v>
+        <v>-11.499985915910047</v>
       </c>
       <c r="AR2">
-        <v>26.809788152889364</v>
+        <v>26.809788161195886</v>
       </c>
       <c r="AS2">
-        <v>23.073866148983637</v>
+        <v>23.073866154943406</v>
       </c>
       <c r="AT2">
-        <v>5.1768085660272094</v>
+        <v>5.1768085659331016</v>
       </c>
       <c r="AU2">
-        <v>18.1952017441251</v>
+        <v>18.195201744498657</v>
       </c>
       <c r="AV2">
-        <v>-5.9006978326700255</v>
+        <v>-5.900697832086113</v>
       </c>
       <c r="AW2">
-        <v>0.74644912716402212</v>
+        <v>0.74644912750563452</v>
       </c>
       <c r="AX2">
-        <v>17.128328539027851</v>
+        <v>17.128328538928951</v>
       </c>
       <c r="AY2">
-        <v>27.960145406430037</v>
+        <v>27.960145406294608</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
@@ -673,154 +668,154 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>4.6326560060813291</v>
+        <v>4.6326560059570143</v>
       </c>
       <c r="C3">
-        <v>2.124365363385059</v>
+        <v>2.1243653633463913</v>
       </c>
       <c r="D3">
-        <v>19.936000794598652</v>
+        <v>19.936000795088763</v>
       </c>
       <c r="E3">
-        <v>12.286264505577796</v>
+        <v>12.286264565386976</v>
       </c>
       <c r="F3">
-        <v>6.1741110766318368</v>
+        <v>6.1741110769060983</v>
       </c>
       <c r="G3">
-        <v>15.113935028987962</v>
+        <v>15.113935029569902</v>
       </c>
       <c r="H3">
-        <v>-10.185143359127478</v>
+        <v>-10.185143359196354</v>
       </c>
       <c r="I3">
-        <v>3.3784297620500245</v>
+        <v>3.378429762023003</v>
       </c>
       <c r="J3">
-        <v>16.40459890856933</v>
+        <v>16.404598908760011</v>
       </c>
       <c r="K3">
-        <v>45.29900997462574</v>
+        <v>45.299009974966722</v>
       </c>
       <c r="L3">
-        <v>22.054623926764624</v>
+        <v>22.054623926690475</v>
       </c>
       <c r="M3">
-        <v>-9.3291709442835075E-2</v>
+        <v>-9.3539175457207788E-2</v>
       </c>
       <c r="N3">
-        <v>8.4170495822072429</v>
+        <v>8.4170495821710336</v>
       </c>
       <c r="O3">
-        <v>-24.399405447544762</v>
+        <v>-24.399405447146002</v>
       </c>
       <c r="P3">
-        <v>13.048054741259987</v>
+        <v>13.04805474143369</v>
       </c>
       <c r="Q3">
-        <v>6.6299228171298736</v>
+        <v>6.629922817005153</v>
       </c>
       <c r="R3">
-        <v>-7.3081369991576093</v>
+        <v>-7.3081369995935033</v>
       </c>
       <c r="S3">
-        <v>20.670251295462037</v>
+        <v>20.670251295390692</v>
       </c>
       <c r="T3">
-        <v>26.997645610149984</v>
+        <v>26.997645610525783</v>
       </c>
       <c r="U3">
-        <v>9.7712802917770603</v>
+        <v>9.7712802918870008</v>
       </c>
       <c r="V3">
-        <v>14.963847549970716</v>
+        <v>14.963847549304141</v>
       </c>
       <c r="W3">
-        <v>-5.267482597732279</v>
+        <v>-5.2674825961931147</v>
       </c>
       <c r="X3">
-        <v>-8.4776967239425218</v>
+        <v>-8.4776967239481813</v>
       </c>
       <c r="Y3">
-        <v>26.917919138721132</v>
+        <v>26.917919138596382</v>
       </c>
       <c r="Z3">
-        <v>13.306818571558034</v>
+        <v>13.306818571881154</v>
       </c>
       <c r="AA3">
-        <v>14.477647636692007</v>
+        <v>14.477647636954332</v>
       </c>
       <c r="AB3">
-        <v>11.957222261047733</v>
+        <v>11.957222261190742</v>
       </c>
       <c r="AC3">
-        <v>26.978133522467552</v>
+        <v>26.978133523187903</v>
       </c>
       <c r="AD3">
-        <v>22.256067531324337</v>
+        <v>22.256067531541031</v>
       </c>
       <c r="AE3">
-        <v>17.770266948041126</v>
+        <v>17.770266947591281</v>
       </c>
       <c r="AF3">
-        <v>10.112611428593112</v>
+        <v>10.112611428799338</v>
       </c>
       <c r="AG3">
-        <v>3.9086150376215065</v>
+        <v>3.9086150377620892</v>
       </c>
       <c r="AH3">
-        <v>0.39546873635706886</v>
+        <v>0.39546873730327498</v>
       </c>
       <c r="AI3">
-        <v>51.576639108719938</v>
+        <v>51.576639111067621</v>
       </c>
       <c r="AJ3">
-        <v>25.588024960298817</v>
+        <v>25.58802496070718</v>
       </c>
       <c r="AK3">
-        <v>15.177990519342021</v>
+        <v>15.177990519453715</v>
       </c>
       <c r="AL3">
-        <v>7.8519166717392244</v>
+        <v>7.8519166716547071</v>
       </c>
       <c r="AM3">
-        <v>5.9900348243722599</v>
+        <v>5.9900348240649164</v>
       </c>
       <c r="AN3">
-        <v>-20.138133644274316</v>
+        <v>-20.138133644007919</v>
       </c>
       <c r="AO3">
-        <v>19.272961845060983</v>
+        <v>19.272961843243781</v>
       </c>
       <c r="AP3">
-        <v>-1.9123604273565737</v>
+        <v>-1.9123604252528448</v>
       </c>
       <c r="AQ3">
-        <v>11.570958162035501</v>
+        <v>11.570958165077327</v>
       </c>
       <c r="AR3">
-        <v>37.8366873080641</v>
+        <v>37.836687309804908</v>
       </c>
       <c r="AS3">
-        <v>19.493098139471197</v>
+        <v>19.49309813898742</v>
       </c>
       <c r="AT3">
-        <v>11.102039103967908</v>
+        <v>11.102039104669739</v>
       </c>
       <c r="AU3">
-        <v>9.4742267306483807</v>
+        <v>9.4742267321109761</v>
       </c>
       <c r="AV3">
-        <v>-2.4337641301059367</v>
+        <v>-2.4337641287018998</v>
       </c>
       <c r="AW3">
-        <v>-3.3840160181290679</v>
+        <v>-3.3840160187277473</v>
       </c>
       <c r="AX3">
-        <v>10.614697890592032</v>
+        <v>10.614697890941798</v>
       </c>
       <c r="AY3">
-        <v>31.448742373335335</v>
+        <v>31.448742373240428</v>
       </c>
     </row>
   </sheetData>

--- a/data_output/prism_passive/all_passive_out_licht_fas_strain_GM_zero.xlsx
+++ b/data_output/prism_passive/all_passive_out_licht_fas_strain_GM_zero.xlsx
@@ -19,15 +19,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
     <t>Subj</t>
-  </si>
-  <si>
-    <t>CON</t>
-  </si>
-  <si>
-    <t>STR</t>
   </si>
 </sst>
 </file>
@@ -357,57 +351,6 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1">
-        <v>1</v>
-      </c>
-      <c r="C1">
-        <v>2</v>
-      </c>
-      <c r="D1">
-        <v>3</v>
-      </c>
-      <c r="E1">
-        <v>4</v>
-      </c>
-      <c r="F1">
-        <v>5</v>
-      </c>
-      <c r="G1">
-        <v>6</v>
-      </c>
-      <c r="H1">
-        <v>7</v>
-      </c>
-      <c r="I1">
-        <v>8</v>
-      </c>
-      <c r="J1">
-        <v>9</v>
-      </c>
-      <c r="K1">
-        <v>10</v>
-      </c>
-      <c r="L1">
-        <v>11</v>
-      </c>
-      <c r="M1">
-        <v>13</v>
-      </c>
-      <c r="N1">
-        <v>15</v>
-      </c>
-      <c r="O1">
-        <v>16</v>
-      </c>
-      <c r="P1">
-        <v>18</v>
-      </c>
-      <c r="Q1">
-        <v>19</v>
-      </c>
-      <c r="R1">
-        <v>20</v>
-      </c>
       <c r="S1">
         <v>21</v>
       </c>
@@ -432,57 +375,6 @@
       <c r="Z1">
         <v>31</v>
       </c>
-      <c r="AA1">
-        <v>1</v>
-      </c>
-      <c r="AB1">
-        <v>2</v>
-      </c>
-      <c r="AC1">
-        <v>3</v>
-      </c>
-      <c r="AD1">
-        <v>4</v>
-      </c>
-      <c r="AE1">
-        <v>5</v>
-      </c>
-      <c r="AF1">
-        <v>6</v>
-      </c>
-      <c r="AG1">
-        <v>7</v>
-      </c>
-      <c r="AH1">
-        <v>8</v>
-      </c>
-      <c r="AI1">
-        <v>9</v>
-      </c>
-      <c r="AJ1">
-        <v>10</v>
-      </c>
-      <c r="AK1">
-        <v>11</v>
-      </c>
-      <c r="AL1">
-        <v>13</v>
-      </c>
-      <c r="AM1">
-        <v>15</v>
-      </c>
-      <c r="AN1">
-        <v>16</v>
-      </c>
-      <c r="AO1">
-        <v>18</v>
-      </c>
-      <c r="AP1">
-        <v>19</v>
-      </c>
-      <c r="AQ1">
-        <v>20</v>
-      </c>
       <c r="AR1">
         <v>21</v>
       </c>
@@ -509,62 +401,59 @@
       </c>
     </row>
     <row r="2" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
       <c r="B2">
-        <v>1.0471543104377714</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>10.278253881239507</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>11.274348604036694</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>25.650007595309233</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>8.3153607724664926</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>1.1137133479998667</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>6.8997033483101395</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>16.875306450438451</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>14.757479837682908</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>3.6498268595172285</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>4.8437607859804093</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>-9.3680420427849818</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>16.846068016899849</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>9.1514448931660137</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>20.613428147926356</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>-2.7165164364185239</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>-12.049607504453629</v>
+        <v>0</v>
       </c>
       <c r="S2">
-        <v>31.107734283684547</v>
+        <v>22.152805434433244</v>
       </c>
       <c r="T2">
         <v>29.275076931949762</v>
@@ -573,7 +462,7 @@
         <v>-5.2371573509240497</v>
       </c>
       <c r="V2">
-        <v>3.2578968085905005</v>
+        <v>4.1220762669135365</v>
       </c>
       <c r="W2">
         <v>-19.094472757414682</v>
@@ -588,55 +477,55 @@
         <v>11.11062562325677</v>
       </c>
       <c r="AA2">
-        <v>13.561019896520621</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>6.6143047769190542</v>
+        <v>0</v>
       </c>
       <c r="AC2">
-        <v>-5.5493057144669615</v>
+        <v>0</v>
       </c>
       <c r="AD2">
-        <v>21.034850123685878</v>
+        <v>0</v>
       </c>
       <c r="AE2">
-        <v>5.4147160156156735</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>12.329853027859333</v>
+        <v>0</v>
       </c>
       <c r="AG2">
-        <v>13.415344228554568</v>
+        <v>0</v>
       </c>
       <c r="AH2">
-        <v>15.600648065207206</v>
+        <v>0</v>
       </c>
       <c r="AI2">
-        <v>13.167686170765682</v>
+        <v>0</v>
       </c>
       <c r="AJ2">
-        <v>11.497395132143353</v>
+        <v>0</v>
       </c>
       <c r="AK2">
-        <v>15.468611729599962</v>
+        <v>0</v>
       </c>
       <c r="AL2">
-        <v>-7.6021513564973695</v>
+        <v>0</v>
       </c>
       <c r="AM2">
-        <v>11.262458768517522</v>
+        <v>0</v>
       </c>
       <c r="AN2">
-        <v>17.087306887355112</v>
+        <v>0</v>
       </c>
       <c r="AO2">
-        <v>28.29884036347346</v>
+        <v>0</v>
       </c>
       <c r="AP2">
-        <v>18.620194531063053</v>
+        <v>0</v>
       </c>
       <c r="AQ2">
-        <v>-11.499985915910047</v>
+        <v>0</v>
       </c>
       <c r="AR2">
         <v>26.809788161195886</v>
@@ -664,59 +553,56 @@
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
       <c r="B3">
-        <v>4.6326560059570143</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>2.1243653633463913</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>19.936000795088763</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>12.286264565386976</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>6.1741110769060983</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>15.113935029569902</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>-10.185143359196354</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>3.378429762023003</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>16.404598908760011</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>45.299009974966722</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>22.054623926690475</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>-9.3539175457207788E-2</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>8.4170495821710336</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>-24.399405447146002</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>13.04805474143369</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>6.629922817005153</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>-7.3081369995935033</v>
+        <v>0</v>
       </c>
       <c r="S3">
         <v>20.670251295390692</v>
@@ -743,55 +629,55 @@
         <v>13.306818571881154</v>
       </c>
       <c r="AA3">
-        <v>14.477647636954332</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>11.957222261190742</v>
+        <v>0</v>
       </c>
       <c r="AC3">
-        <v>26.978133523187903</v>
+        <v>0</v>
       </c>
       <c r="AD3">
-        <v>22.256067531541031</v>
+        <v>0</v>
       </c>
       <c r="AE3">
-        <v>17.770266947591281</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>10.112611428799338</v>
+        <v>0</v>
       </c>
       <c r="AG3">
-        <v>3.9086150377620892</v>
+        <v>0</v>
       </c>
       <c r="AH3">
-        <v>0.39546873730327498</v>
+        <v>0</v>
       </c>
       <c r="AI3">
-        <v>51.576639111067621</v>
+        <v>0</v>
       </c>
       <c r="AJ3">
-        <v>25.58802496070718</v>
+        <v>0</v>
       </c>
       <c r="AK3">
-        <v>15.177990519453715</v>
+        <v>0</v>
       </c>
       <c r="AL3">
-        <v>7.8519166716547071</v>
+        <v>0</v>
       </c>
       <c r="AM3">
-        <v>5.9900348240649164</v>
+        <v>0</v>
       </c>
       <c r="AN3">
-        <v>-20.138133644007919</v>
+        <v>0</v>
       </c>
       <c r="AO3">
-        <v>19.272961843243781</v>
+        <v>0</v>
       </c>
       <c r="AP3">
-        <v>-1.9123604252528448</v>
+        <v>0</v>
       </c>
       <c r="AQ3">
-        <v>11.570958165077327</v>
+        <v>0</v>
       </c>
       <c r="AR3">
         <v>37.836687309804908</v>

--- a/data_output/prism_passive/all_passive_out_licht_fas_strain_GM_zero.xlsx
+++ b/data_output/prism_passive/all_passive_out_licht_fas_strain_GM_zero.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9024"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9030"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -353,26 +348,26 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AY3"/>
+      <selection activeCell="B1" sqref="B1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="C1">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="D1">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="E1">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -517,17 +512,11 @@
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2">
-        <v>1.0471543105352326</v>
-      </c>
       <c r="C2">
-        <v>4.7552523152655546</v>
-      </c>
-      <c r="D2">
-        <v>11.274348604143599</v>
+        <v>-12.049607504453629</v>
       </c>
       <c r="E2">
-        <v>25.650007595657186</v>
+        <v>-11.499985915910047</v>
       </c>
       <c r="F2">
         <v>8.3153607740937847</v>
@@ -673,16 +662,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>4.6326560060813291</v>
+        <v>-16.827364875250563</v>
       </c>
       <c r="C3">
-        <v>2.124365363385059</v>
+        <v>-7.3081369995935033</v>
       </c>
       <c r="D3">
-        <v>19.936000794598652</v>
+        <v>-19.35657950153503</v>
       </c>
       <c r="E3">
-        <v>12.286264505577796</v>
+        <v>17.973387780569752</v>
       </c>
       <c r="F3">
         <v>6.1741110766318368</v>

--- a/data_output/prism_passive/all_passive_out_licht_fas_strain_GM_zero.xlsx
+++ b/data_output/prism_passive/all_passive_out_licht_fas_strain_GM_zero.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9036"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9030"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -353,26 +348,26 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AY3"/>
+      <selection activeCell="B1" sqref="B1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C1">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D1">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="E1">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -518,16 +513,10 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>1.0471543105352326</v>
-      </c>
-      <c r="C2">
-        <v>4.7552523152655546</v>
+        <v>13.529346766142577</v>
       </c>
       <c r="D2">
-        <v>11.274348604143599</v>
-      </c>
-      <c r="E2">
-        <v>25.650007595657186</v>
+        <v>11.262458768517522</v>
       </c>
       <c r="F2">
         <v>8.3153607740937847</v>
@@ -664,16 +653,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>4.6326560060813291</v>
+        <v>8.4170495821710336</v>
       </c>
       <c r="C3">
-        <v>2.124365363385059</v>
+        <v>-16.827364875250563</v>
       </c>
       <c r="D3">
-        <v>19.936000794598652</v>
+        <v>5.9900348240649164</v>
       </c>
       <c r="E3">
-        <v>21.582504465512933</v>
+        <v>-19.35657950153503</v>
       </c>
       <c r="F3">
         <v>6.1741110766318368</v>

--- a/data_output/prism_passive/all_passive_out_licht_fas_strain_GM_zero.xlsx
+++ b/data_output/prism_passive/all_passive_out_licht_fas_strain_GM_zero.xlsx
@@ -348,7 +348,7 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:E3"/>
+      <selection activeCell="B1" sqref="B1:AY3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -358,16 +358,16 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C1">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D1">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="E1">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -513,139 +513,145 @@
         <v>1</v>
       </c>
       <c r="B2">
+        <v>1.0471543104377714</v>
+      </c>
+      <c r="C2">
+        <v>4.7552523151899067</v>
+      </c>
+      <c r="D2">
+        <v>11.274348604036694</v>
+      </c>
+      <c r="E2">
+        <v>25.650007595309233</v>
+      </c>
+      <c r="F2">
+        <v>8.3153607724664926</v>
+      </c>
+      <c r="G2">
+        <v>4.6053328215533513</v>
+      </c>
+      <c r="H2">
+        <v>6.8997033483101395</v>
+      </c>
+      <c r="I2">
+        <v>20.395805221847642</v>
+      </c>
+      <c r="J2">
+        <v>14.757479837682908</v>
+      </c>
+      <c r="K2">
+        <v>3.6498268595172285</v>
+      </c>
+      <c r="L2">
+        <v>2.1184949106515716</v>
+      </c>
+      <c r="M2">
+        <v>-1.9535622083042572</v>
+      </c>
+      <c r="N2">
         <v>13.529346766142577</v>
       </c>
-      <c r="D2">
+      <c r="P2">
+        <v>21.939789725120558</v>
+      </c>
+      <c r="Q2">
+        <v>-2.7165164364185239</v>
+      </c>
+      <c r="R2">
+        <v>-12.049607504453629</v>
+      </c>
+      <c r="T2">
+        <v>24.35503455670333</v>
+      </c>
+      <c r="U2">
+        <v>-5.2371573509240497</v>
+      </c>
+      <c r="V2">
+        <v>8.801154195585486</v>
+      </c>
+      <c r="W2">
+        <v>-19.094472757414682</v>
+      </c>
+      <c r="X2">
+        <v>-2.2831633216552167</v>
+      </c>
+      <c r="Y2">
+        <v>23.424568724039752</v>
+      </c>
+      <c r="Z2">
+        <v>11.11062562325677</v>
+      </c>
+      <c r="AA2">
+        <v>13.561019896520621</v>
+      </c>
+      <c r="AB2">
+        <v>6.6143047769190542</v>
+      </c>
+      <c r="AC2">
+        <v>-5.5493057144669615</v>
+      </c>
+      <c r="AD2">
+        <v>21.034850123685878</v>
+      </c>
+      <c r="AE2">
+        <v>5.4147160156156735</v>
+      </c>
+      <c r="AF2">
+        <v>12.329853027859333</v>
+      </c>
+      <c r="AG2">
+        <v>13.415344228554568</v>
+      </c>
+      <c r="AH2">
+        <v>15.600648065207206</v>
+      </c>
+      <c r="AI2">
+        <v>13.167686170765682</v>
+      </c>
+      <c r="AJ2">
+        <v>11.497395132143353</v>
+      </c>
+      <c r="AK2">
+        <v>15.468611729599962</v>
+      </c>
+      <c r="AL2">
+        <v>-7.6021513564973695</v>
+      </c>
+      <c r="AM2">
         <v>11.262458768517522</v>
       </c>
-      <c r="F2">
-        <v>8.3153607740937847</v>
-      </c>
-      <c r="G2">
-        <v>4.6053328218767051</v>
-      </c>
-      <c r="H2">
-        <v>6.8997033481926398</v>
-      </c>
-      <c r="I2">
-        <v>20.395805219156379</v>
-      </c>
-      <c r="J2">
-        <v>14.757479835246562</v>
-      </c>
-      <c r="K2">
-        <v>3.6498268594644974</v>
-      </c>
-      <c r="L2">
-        <v>2.1184949106858637</v>
-      </c>
-      <c r="M2">
-        <v>-1.953562208720343</v>
-      </c>
-      <c r="N2">
-        <v>13.529346764456102</v>
-      </c>
-      <c r="P2">
-        <v>21.939789725698841</v>
-      </c>
-      <c r="Q2">
-        <v>-2.7165164364931158</v>
-      </c>
-      <c r="R2">
-        <v>-12.049607505575253</v>
-      </c>
-      <c r="T2">
-        <v>24.355034556168135</v>
-      </c>
-      <c r="U2">
-        <v>-5.2371573512103575</v>
-      </c>
-      <c r="V2">
-        <v>8.8011541955547781</v>
-      </c>
-      <c r="W2">
-        <v>-19.09447275906393</v>
-      </c>
-      <c r="X2">
-        <v>-2.2831633222419789</v>
-      </c>
-      <c r="Y2">
-        <v>23.42456872413814</v>
-      </c>
-      <c r="Z2">
-        <v>11.11062562346642</v>
-      </c>
-      <c r="AA2">
-        <v>13.561019889073393</v>
-      </c>
-      <c r="AB2">
-        <v>6.6143047768685097</v>
-      </c>
-      <c r="AC2">
-        <v>-5.5493057144489519</v>
-      </c>
-      <c r="AD2">
-        <v>21.034850123791557</v>
-      </c>
-      <c r="AE2">
-        <v>5.4147160161083399</v>
-      </c>
-      <c r="AF2">
-        <v>12.329853028727044</v>
-      </c>
-      <c r="AG2">
-        <v>13.415344225931017</v>
-      </c>
-      <c r="AH2">
-        <v>15.600648064301421</v>
-      </c>
-      <c r="AI2">
-        <v>13.167686170979092</v>
-      </c>
-      <c r="AJ2">
-        <v>11.49739513167787</v>
-      </c>
-      <c r="AK2">
-        <v>15.468611729814571</v>
-      </c>
-      <c r="AL2">
-        <v>-7.6021513567710963</v>
-      </c>
-      <c r="AM2">
-        <v>11.26245876832964</v>
-      </c>
       <c r="AO2">
-        <v>28.298840362658993</v>
+        <v>28.29884036347346</v>
       </c>
       <c r="AP2">
-        <v>22.521562113046713</v>
+        <v>22.521562112597735</v>
       </c>
       <c r="AQ2">
-        <v>-11.499985915935405</v>
+        <v>-11.499985915910047</v>
       </c>
       <c r="AR2">
-        <v>26.809788152889364</v>
+        <v>26.809788161195886</v>
       </c>
       <c r="AS2">
-        <v>23.073866148983637</v>
+        <v>23.073866154943406</v>
       </c>
       <c r="AT2">
-        <v>5.1768085660272094</v>
+        <v>5.1768085659331016</v>
       </c>
       <c r="AU2">
-        <v>7.3789885303192841</v>
+        <v>7.3789885691276993</v>
       </c>
       <c r="AV2">
-        <v>-5.9006978326700255</v>
+        <v>-5.900697832086113</v>
       </c>
       <c r="AW2">
-        <v>0.74644912716402212</v>
+        <v>0.74644912750563452</v>
       </c>
       <c r="AX2">
-        <v>17.128328539027851</v>
+        <v>17.128328538928951</v>
       </c>
       <c r="AY2">
-        <v>27.960145406430037</v>
+        <v>27.960145406294608</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
@@ -653,154 +659,154 @@
         <v>2</v>
       </c>
       <c r="B3">
+        <v>4.6326560059570143</v>
+      </c>
+      <c r="C3">
+        <v>2.1243653633463913</v>
+      </c>
+      <c r="D3">
+        <v>19.936000795088763</v>
+      </c>
+      <c r="E3">
+        <v>21.58250455010791</v>
+      </c>
+      <c r="F3">
+        <v>6.1741110769060983</v>
+      </c>
+      <c r="G3">
+        <v>15.113935029569902</v>
+      </c>
+      <c r="H3">
+        <v>-10.185143359196354</v>
+      </c>
+      <c r="I3">
+        <v>3.378429762023003</v>
+      </c>
+      <c r="J3">
+        <v>16.404598908760011</v>
+      </c>
+      <c r="K3">
+        <v>34.277580475063019</v>
+      </c>
+      <c r="L3">
+        <v>22.054623926690475</v>
+      </c>
+      <c r="M3">
+        <v>-8.5680777686062584</v>
+      </c>
+      <c r="N3">
         <v>8.4170495821710336</v>
       </c>
-      <c r="C3">
+      <c r="O3">
         <v>-16.827364875250563</v>
       </c>
-      <c r="D3">
+      <c r="P3">
+        <v>13.04805474143369</v>
+      </c>
+      <c r="Q3">
+        <v>6.629922817005153</v>
+      </c>
+      <c r="R3">
+        <v>-7.3081369995935033</v>
+      </c>
+      <c r="S3">
+        <v>20.670251295390692</v>
+      </c>
+      <c r="T3">
+        <v>26.997645610525783</v>
+      </c>
+      <c r="U3">
+        <v>9.7712802918870008</v>
+      </c>
+      <c r="V3">
+        <v>18.896842811071654</v>
+      </c>
+      <c r="W3">
+        <v>-5.2674825961931147</v>
+      </c>
+      <c r="X3">
+        <v>-8.4776967239481813</v>
+      </c>
+      <c r="Y3">
+        <v>26.917919138596382</v>
+      </c>
+      <c r="Z3">
+        <v>13.306818571881154</v>
+      </c>
+      <c r="AA3">
+        <v>14.477647636954332</v>
+      </c>
+      <c r="AB3">
+        <v>11.957222261190742</v>
+      </c>
+      <c r="AC3">
+        <v>26.978133523187903</v>
+      </c>
+      <c r="AD3">
+        <v>22.256067531541031</v>
+      </c>
+      <c r="AE3">
+        <v>17.770266947591281</v>
+      </c>
+      <c r="AF3">
+        <v>10.112611428799338</v>
+      </c>
+      <c r="AG3">
+        <v>3.9086150248291469</v>
+      </c>
+      <c r="AH3">
+        <v>0.39546873730327498</v>
+      </c>
+      <c r="AI3">
+        <v>13.636392339412929</v>
+      </c>
+      <c r="AJ3">
+        <v>25.58802496070718</v>
+      </c>
+      <c r="AK3">
+        <v>15.177990519453715</v>
+      </c>
+      <c r="AL3">
+        <v>7.8519166716547071</v>
+      </c>
+      <c r="AM3">
         <v>5.9900348240649164</v>
       </c>
-      <c r="E3">
+      <c r="AN3">
         <v>-19.35657950153503</v>
       </c>
-      <c r="F3">
-        <v>6.1741110766318368</v>
-      </c>
-      <c r="G3">
-        <v>15.113935028987962</v>
-      </c>
-      <c r="H3">
-        <v>-10.185143359127478</v>
-      </c>
-      <c r="I3">
-        <v>3.3784297620500245</v>
-      </c>
-      <c r="J3">
-        <v>16.40459890856933</v>
-      </c>
-      <c r="K3">
-        <v>34.277580474566783</v>
-      </c>
-      <c r="L3">
-        <v>22.054623926764624</v>
-      </c>
-      <c r="M3">
-        <v>-8.5683093437828894</v>
-      </c>
-      <c r="N3">
-        <v>8.4170495822072429</v>
-      </c>
-      <c r="O3">
-        <v>-16.827364876715361</v>
-      </c>
-      <c r="P3">
-        <v>13.048054741259987</v>
-      </c>
-      <c r="Q3">
-        <v>6.6299228171298736</v>
-      </c>
-      <c r="R3">
-        <v>-7.3081369991576093</v>
-      </c>
-      <c r="S3">
-        <v>20.670251295462037</v>
-      </c>
-      <c r="T3">
-        <v>26.997645610149984</v>
-      </c>
-      <c r="U3">
-        <v>9.7712802917770603</v>
-      </c>
-      <c r="V3">
-        <v>18.896842814515356</v>
-      </c>
-      <c r="W3">
-        <v>-5.267482597732279</v>
-      </c>
-      <c r="X3">
-        <v>-8.4776967239425218</v>
-      </c>
-      <c r="Y3">
-        <v>26.917919138721132</v>
-      </c>
-      <c r="Z3">
-        <v>13.306818571558034</v>
-      </c>
-      <c r="AA3">
-        <v>14.477647636692007</v>
-      </c>
-      <c r="AB3">
-        <v>11.957222261047733</v>
-      </c>
-      <c r="AC3">
-        <v>26.978133522467552</v>
-      </c>
-      <c r="AD3">
-        <v>22.256067531324337</v>
-      </c>
-      <c r="AE3">
-        <v>17.770266948041126</v>
-      </c>
-      <c r="AF3">
-        <v>10.112611428593112</v>
-      </c>
-      <c r="AG3">
-        <v>3.9086150246885638</v>
-      </c>
-      <c r="AH3">
-        <v>0.39546873635706886</v>
-      </c>
-      <c r="AI3">
-        <v>13.636392340448648</v>
-      </c>
-      <c r="AJ3">
-        <v>25.588024960298817</v>
-      </c>
-      <c r="AK3">
-        <v>15.177990519342021</v>
-      </c>
-      <c r="AL3">
-        <v>7.8519166717392244</v>
-      </c>
-      <c r="AM3">
-        <v>5.9900348243722599</v>
-      </c>
-      <c r="AN3">
-        <v>-19.356579501808927</v>
-      </c>
       <c r="AO3">
-        <v>19.272961845060983</v>
+        <v>19.272961843243781</v>
       </c>
       <c r="AP3">
-        <v>-1.9123604273565737</v>
+        <v>-1.9123604252528448</v>
       </c>
       <c r="AQ3">
-        <v>17.97338778068741</v>
+        <v>17.973387780569752</v>
       </c>
       <c r="AR3">
-        <v>37.8366873080641</v>
+        <v>37.836687309804908</v>
       </c>
       <c r="AS3">
-        <v>19.493098139471197</v>
+        <v>19.49309813898742</v>
       </c>
       <c r="AT3">
-        <v>11.102039103967908</v>
+        <v>11.102039104669739</v>
       </c>
       <c r="AU3">
-        <v>10.426646799280412</v>
+        <v>10.426646801612362</v>
       </c>
       <c r="AV3">
-        <v>-2.4337641301059367</v>
+        <v>-2.4337641287018998</v>
       </c>
       <c r="AW3">
-        <v>-3.3840160181290679</v>
+        <v>-3.3840160187277473</v>
       </c>
       <c r="AX3">
-        <v>10.614697890592032</v>
+        <v>10.614697890941798</v>
       </c>
       <c r="AY3">
-        <v>31.448742373335335</v>
+        <v>31.448742373240428</v>
       </c>
     </row>
   </sheetData>
